--- a/Team-Data/2011-12/2-23-2011-12.xlsx
+++ b/Team-Data/2011-12/2-23-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,40 +733,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.588</v>
+        <v>0.576</v>
       </c>
       <c r="H2" t="n">
         <v>48.9</v>
       </c>
       <c r="I2" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J2" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L2" t="n">
         <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P2" t="n">
         <v>20.9</v>
@@ -711,16 +778,16 @@
         <v>10.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V2" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W2" t="n">
         <v>8.199999999999999</v>
@@ -729,31 +796,31 @@
         <v>5.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" t="n">
         <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -762,7 +829,7 @@
         <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -792,34 +859,34 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -932,7 +999,7 @@
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
         <v>18</v>
@@ -983,13 +1050,13 @@
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="n">
         <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>3</v>
@@ -1344,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW5" t="n">
         <v>21</v>
@@ -1353,10 +1420,10 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1545,7 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
         <v>8</v>
@@ -1693,13 +1760,13 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1714,10 +1781,10 @@
         <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>14</v>
@@ -1729,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.514</v>
+        <v>0.529</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
@@ -1779,46 +1846,46 @@
         <v>81.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>6.7</v>
       </c>
       <c r="M8" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="O8" t="n">
         <v>20.7</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="O8" t="n">
-        <v>20.6</v>
-      </c>
       <c r="P8" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
         <v>6.6</v>
@@ -1827,25 +1894,25 @@
         <v>19.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1866,10 +1933,10 @@
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1893,10 +1960,10 @@
         <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2215,13 +2282,13 @@
         <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2272,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="BB10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>1.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
@@ -2457,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2573,16 +2640,16 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
@@ -2603,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>5</v>
@@ -2633,7 +2700,7 @@
         <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2822,7 @@
         <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
@@ -2764,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>8</v>
@@ -2821,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -2850,106 +2917,106 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.588</v>
+        <v>0.606</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J14" t="n">
         <v>79.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L14" t="n">
         <v>5.1</v>
       </c>
       <c r="M14" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N14" t="n">
         <v>0.305</v>
       </c>
       <c r="O14" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P14" t="n">
         <v>22.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.742</v>
+        <v>0.737</v>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S14" t="n">
         <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U14" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>93.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>9</v>
       </c>
       <c r="AH14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI14" t="n">
         <v>16</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
         <v>14</v>
@@ -2967,10 +3034,10 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -2988,7 +3055,7 @@
         <v>29</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3000,7 +3067,7 @@
         <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>24</v>
@@ -3182,10 +3249,10 @@
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -3214,67 +3281,67 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.794</v>
+        <v>0.788</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J16" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K16" t="n">
         <v>0.488</v>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>14.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.398</v>
+        <v>0.402</v>
       </c>
       <c r="O16" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P16" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S16" t="n">
         <v>33</v>
       </c>
       <c r="T16" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V16" t="n">
         <v>15.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y16" t="n">
         <v>4.2</v>
@@ -3283,19 +3350,19 @@
         <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3325,16 +3392,16 @@
         <v>1</v>
       </c>
       <c r="AO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP16" t="n">
         <v>3</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
         <v>4</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>5</v>
-      </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
         <v>3</v>
@@ -3349,10 +3416,10 @@
         <v>20</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3361,7 +3428,7 @@
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB16" t="n">
         <v>1</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3501,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>18</v>
@@ -3522,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
         <v>13</v>
@@ -3543,7 +3610,7 @@
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3686,13 +3753,13 @@
         <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
@@ -3710,13 +3777,13 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW18" t="n">
         <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
@@ -3731,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4059,16 +4126,16 @@
         <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J21" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L21" t="n">
         <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.305</v>
+        <v>0.303</v>
       </c>
       <c r="O21" t="n">
         <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T21" t="n">
         <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="V21" t="n">
         <v>16.9</v>
@@ -4187,37 +4254,37 @@
         <v>4.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
         <v>22.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
       </c>
       <c r="AF21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="n">
         <v>20</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4250,22 +4317,22 @@
         <v>18</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4277,7 +4344,7 @@
         <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.794</v>
+        <v>0.788</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4333,25 +4400,25 @@
         <v>6.8</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O22" t="n">
         <v>21.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T22" t="n">
         <v>43.6</v>
@@ -4360,34 +4427,34 @@
         <v>18.3</v>
       </c>
       <c r="V22" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="W22" t="n">
         <v>7.9</v>
       </c>
       <c r="X22" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AA22" t="n">
         <v>20.7</v>
       </c>
-      <c r="AA22" t="n">
-        <v>20.6</v>
-      </c>
       <c r="AB22" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4408,7 +4475,7 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4438,7 +4505,7 @@
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW22" t="n">
         <v>15</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.629</v>
+        <v>0.647</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4506,25 +4573,25 @@
         <v>33.7</v>
       </c>
       <c r="J23" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.392</v>
       </c>
       <c r="O23" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="P23" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q23" t="n">
         <v>0.651</v>
@@ -4533,22 +4600,22 @@
         <v>10.9</v>
       </c>
       <c r="S23" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
         <v>15.1</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>4.4</v>
@@ -4557,28 +4624,28 @@
         <v>17.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.09999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4623,10 +4690,10 @@
         <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
         <v>6</v>
@@ -4638,10 +4705,10 @@
         <v>10</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>7</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4787,7 +4854,7 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
         <v>29</v>
@@ -4805,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
         <v>22</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4957,7 +5024,7 @@
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN25" t="n">
         <v>15</v>
@@ -4978,10 +5045,10 @@
         <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV25" t="n">
         <v>11</v>
@@ -4990,7 +5057,7 @@
         <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>14</v>
@@ -5124,7 +5191,7 @@
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5136,7 +5203,7 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
         <v>14</v>
@@ -5169,13 +5236,13 @@
         <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5309,7 +5376,7 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.706</v>
+        <v>0.697</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.459</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T28" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U28" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V28" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
         <v>7</v>
@@ -5461,22 +5528,22 @@
         <v>4.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z28" t="n">
         <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>99.3</v>
+        <v>98.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5497,37 +5564,37 @@
         <v>7</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5539,19 +5606,19 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5691,7 +5758,7 @@
         <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
@@ -5703,7 +5770,7 @@
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT29" t="n">
         <v>18</v>
@@ -5721,7 +5788,7 @@
         <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5913,7 @@
         <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>4</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-23-2011-12</t>
+          <t>2012-02-23</t>
         </is>
       </c>
     </row>
